--- a/biology/Zoologie/Hansenochrus_vanderdrifti/Hansenochrus_vanderdrifti.xlsx
+++ b/biology/Zoologie/Hansenochrus_vanderdrifti/Hansenochrus_vanderdrifti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hansenochrus vanderdrifti est une espèce de schizomides de la famille des Hubbardiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Suriname[1]. Elle se rencontre vers Dirkshoop.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Suriname. Elle se rencontre vers Dirkshoop.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 3 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 3 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Joseph van der Drift[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Joseph van der Drift.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Remy, 1961 : Sur l'écologie des Schizomides (Arachn. Uropyges) de mes récoltes, avec description de trois Schizomus nouveaux, capturés par J. van der Drift au Surinam. Bulletin du Muséum National d'Histoire Naturelle, Paris, sér. 2, vol. 33, no 4, p. 500-511 (texte intégral).</t>
         </is>
